--- a/agents/Experiments.xlsx
+++ b/agents/Experiments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\OneDrive\Desktop\RL code\My_Codes\rl-models\agents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e3b3d6ac4ac8675/Desktop/RL code/My_Codes/rl-models/agents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_F25DC773A252ABDACC104870491A4A7E5BDE58EE" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B16AE848-66ED-445A-A977-7D60831AB541}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="11_F25DC773A252ABDACC104870491A4A7E5BDE58EE" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BDA12799-6817-4833-A24B-5FAAA8F19B18}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDPG" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Models</t>
   </si>
@@ -115,12 +115,6 @@
     <t>DDPG_v0</t>
   </si>
   <si>
-    <t>MountainCarContinuous-v0</t>
-  </si>
-  <si>
-    <t>256-128</t>
-  </si>
-  <si>
     <t>128-128</t>
   </si>
   <si>
@@ -128,6 +122,27 @@
   </si>
   <si>
     <t>steps per episode is around 1000, using buffer size 1e5, starts learning around 100 episodes</t>
+  </si>
+  <si>
+    <t>400-300</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Pendulum-v0</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>average&gt; -150</t>
+  </si>
+  <si>
+    <t>episodes</t>
   </si>
 </sst>
 </file>
@@ -481,7 +496,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -511,15 +526,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="b">
-        <v>0</v>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.75">
@@ -571,7 +586,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="6">
-        <v>100000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.75">
@@ -579,7 +594,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="6">
-        <v>128</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.75">
@@ -598,59 +613,56 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-    </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1</v>
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A24" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A26" t="s">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A29" t="s">
-        <v>21</v>
+      <c r="B24" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A31" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -695,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.75">
@@ -852,10 +864,10 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A40" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
